--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H2">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I2">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J2">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>340.5374227089039</v>
+        <v>1479.231678750217</v>
       </c>
       <c r="R2">
-        <v>340.5374227089039</v>
+        <v>13313.08510875195</v>
       </c>
       <c r="S2">
-        <v>0.2271115369377858</v>
+        <v>0.3463173361411459</v>
       </c>
       <c r="T2">
-        <v>0.2271115369377858</v>
+        <v>0.3463173361411459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H3">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I3">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J3">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>248.2273655119613</v>
+        <v>882.1093505504249</v>
       </c>
       <c r="R3">
-        <v>248.2273655119613</v>
+        <v>7938.984154953825</v>
       </c>
       <c r="S3">
-        <v>0.1655480271242595</v>
+        <v>0.2065192118694508</v>
       </c>
       <c r="T3">
-        <v>0.1655480271242595</v>
+        <v>0.2065192118694508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H4">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I4">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J4">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>250.4987680705468</v>
+        <v>919.5435609148249</v>
       </c>
       <c r="R4">
-        <v>250.4987680705468</v>
+        <v>8275.892048233425</v>
       </c>
       <c r="S4">
-        <v>0.1670628730462766</v>
+        <v>0.2152832994699135</v>
       </c>
       <c r="T4">
-        <v>0.1670628730462766</v>
+        <v>0.2152832994699134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H5">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I5">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J5">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>87.87897911489243</v>
+        <v>318.8049726174584</v>
       </c>
       <c r="R5">
-        <v>87.87897911489243</v>
+        <v>2869.244753557125</v>
       </c>
       <c r="S5">
-        <v>0.05860833106841082</v>
+        <v>0.07463853732412704</v>
       </c>
       <c r="T5">
-        <v>0.05860833106841082</v>
+        <v>0.07463853732412702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H6">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I6">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J6">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>104.2068885356925</v>
+        <v>128.788508581918</v>
       </c>
       <c r="R6">
-        <v>104.2068885356925</v>
+        <v>1159.096577237262</v>
       </c>
       <c r="S6">
-        <v>0.06949775571384467</v>
+        <v>0.03015193215397087</v>
       </c>
       <c r="T6">
-        <v>0.06949775571384467</v>
+        <v>0.03015193215397086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H7">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I7">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J7">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>75.95935038107403</v>
+        <v>76.80037501599301</v>
       </c>
       <c r="R7">
-        <v>75.95935038107403</v>
+        <v>691.2033751439371</v>
       </c>
       <c r="S7">
-        <v>0.05065888110801883</v>
+        <v>0.01798048383648154</v>
       </c>
       <c r="T7">
-        <v>0.05065888110801883</v>
+        <v>0.01798048383648153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H8">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I8">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J8">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>76.65441582016541</v>
+        <v>80.05956435869702</v>
       </c>
       <c r="R8">
-        <v>76.65441582016541</v>
+        <v>720.536079228273</v>
       </c>
       <c r="S8">
-        <v>0.05112243480173231</v>
+        <v>0.01874352439825378</v>
       </c>
       <c r="T8">
-        <v>0.05112243480173231</v>
+        <v>0.01874352439825377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H9">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I9">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J9">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N9">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P9">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q9">
-        <v>26.89159654880011</v>
+        <v>27.75658305708501</v>
       </c>
       <c r="R9">
-        <v>26.89159654880011</v>
+        <v>249.8092475137651</v>
       </c>
       <c r="S9">
-        <v>0.01793456875994958</v>
+        <v>0.006498364010721899</v>
       </c>
       <c r="T9">
-        <v>0.01793456875994958</v>
+        <v>0.006498364010721897</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H10">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I10">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J10">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N10">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P10">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q10">
-        <v>5.670255551945733</v>
+        <v>9.871027526289554</v>
       </c>
       <c r="R10">
-        <v>5.670255551945733</v>
+        <v>88.839247736606</v>
       </c>
       <c r="S10">
-        <v>0.003781612144087968</v>
+        <v>0.002311002398737685</v>
       </c>
       <c r="T10">
-        <v>0.003781612144087968</v>
+        <v>0.002311002398737685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H11">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I11">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J11">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N11">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P11">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q11">
-        <v>4.133209754870972</v>
+        <v>5.886383996208999</v>
       </c>
       <c r="R11">
-        <v>4.133209754870972</v>
+        <v>52.977455965881</v>
       </c>
       <c r="S11">
-        <v>0.002756524121336905</v>
+        <v>0.001378118691179818</v>
       </c>
       <c r="T11">
-        <v>0.002756524121336905</v>
+        <v>0.001378118691179818</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H12">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I12">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J12">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N12">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P12">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q12">
-        <v>4.171030658271456</v>
+        <v>6.136185380427666</v>
       </c>
       <c r="R12">
-        <v>4.171030658271456</v>
+        <v>55.22566842384899</v>
       </c>
       <c r="S12">
-        <v>0.00278174767365997</v>
+        <v>0.001436602126323711</v>
       </c>
       <c r="T12">
-        <v>0.00278174767365997</v>
+        <v>0.00143660212632371</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H13">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I13">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J13">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N13">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P13">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q13">
-        <v>1.463264346284468</v>
+        <v>2.127410266716111</v>
       </c>
       <c r="R13">
-        <v>1.463264346284468</v>
+        <v>19.146692400445</v>
       </c>
       <c r="S13">
-        <v>0.0009758816284781876</v>
+        <v>0.0004980687386785324</v>
       </c>
       <c r="T13">
-        <v>0.0009758816284781876</v>
+        <v>0.0004980687386785321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H14">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I14">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J14">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N14">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P14">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q14">
-        <v>100.3220942838113</v>
+        <v>137.335081813928</v>
       </c>
       <c r="R14">
-        <v>100.3220942838113</v>
+        <v>1236.015736325352</v>
       </c>
       <c r="S14">
-        <v>0.06690690509245496</v>
+        <v>0.03215285365758931</v>
       </c>
       <c r="T14">
-        <v>0.06690690509245496</v>
+        <v>0.0321528536575893</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H15">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I15">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J15">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N15">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P15">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q15">
-        <v>73.12761390104322</v>
+        <v>81.89694796762799</v>
       </c>
       <c r="R15">
-        <v>73.12761390104322</v>
+        <v>737.0725317086519</v>
       </c>
       <c r="S15">
-        <v>0.04877033676224118</v>
+        <v>0.01917369217119655</v>
       </c>
       <c r="T15">
-        <v>0.04877033676224118</v>
+        <v>0.01917369217119655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H16">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I16">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J16">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N16">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P16">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q16">
-        <v>73.79676755771402</v>
+        <v>85.372421361612</v>
       </c>
       <c r="R16">
-        <v>73.79676755771402</v>
+        <v>768.3517922545078</v>
       </c>
       <c r="S16">
-        <v>0.04921660934575089</v>
+        <v>0.01998736909883705</v>
       </c>
       <c r="T16">
-        <v>0.04921660934575089</v>
+        <v>0.01998736909883704</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H17">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I17">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J17">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N17">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P17">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q17">
-        <v>25.88908777836595</v>
+        <v>29.59854607366</v>
       </c>
       <c r="R17">
-        <v>25.88908777836595</v>
+        <v>266.38691466294</v>
       </c>
       <c r="S17">
-        <v>0.01726597467171177</v>
+        <v>0.006929603913391991</v>
       </c>
       <c r="T17">
-        <v>0.01726597467171177</v>
+        <v>0.006929603913391989</v>
       </c>
     </row>
   </sheetData>
